--- a/SCBAA/2016/Region 12.xlsx
+++ b/SCBAA/2016/Region 12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBA\Done XLSX - 2016\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2016\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E304A08-9426-4934-B962-07F102323675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C4C422-C641-4FD1-A960-48054DBE5D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11850" yWindow="810" windowWidth="14625" windowHeight="12540" firstSheet="1" activeTab="4" xr2:uid="{0263629D-6771-40A0-8723-1FE65085E65C}"/>
+    <workbookView xWindow="12570" yWindow="345" windowWidth="14880" windowHeight="7260" xr2:uid="{0263629D-6771-40A0-8723-1FE65085E65C}"/>
   </bookViews>
   <sheets>
     <sheet name="Cotabato" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -248,7 +255,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,6 +411,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -495,7 +508,7 @@
     <xf numFmtId="165" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -584,18 +597,6 @@
     <xf numFmtId="40" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="22" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="22" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="9" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="21" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="4" fontId="20" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -603,23 +604,11 @@
     <xf numFmtId="4" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="4" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="23" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -649,6 +638,40 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="22" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="22" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -971,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D458A5-8B92-45AA-9639-9CEF5B549CE1}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,54 +1007,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="29"/>
@@ -1045,22 +1068,22 @@
       <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="38" t="s">
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="59" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="39"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="60"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
@@ -1095,7 +1118,9 @@
       <c r="D11" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
@@ -1104,7 +1129,9 @@
       <c r="D12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
@@ -1113,7 +1140,9 @@
       <c r="D13" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
@@ -1143,7 +1172,9 @@
       <c r="D16" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="7"/>
+      <c r="E16" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
@@ -1152,7 +1183,9 @@
       <c r="D17" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="7"/>
+      <c r="E17" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
@@ -1161,7 +1194,9 @@
       <c r="D18" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="40"/>
+      <c r="E18" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -1171,7 +1206,7 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="25">
-        <f>SUM(E16:E18)</f>
+        <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>0</v>
       </c>
     </row>
@@ -1191,7 +1226,9 @@
         <v>46</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="7"/>
+      <c r="E21" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
@@ -1200,7 +1237,9 @@
         <v>45</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="7"/>
+      <c r="E22" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
@@ -1209,7 +1248,7 @@
         <v>44</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="15"/>
+      <c r="E23" s="66"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -1218,7 +1257,9 @@
       <c r="D24" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="41"/>
+      <c r="E24" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
@@ -1227,7 +1268,9 @@
       <c r="D25" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="14"/>
+      <c r="E25" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
@@ -1236,7 +1279,9 @@
       <c r="D26" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="40"/>
+      <c r="E26" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
@@ -1245,7 +1290,9 @@
       <c r="D27" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="41"/>
+      <c r="E27" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
@@ -1263,7 +1310,9 @@
       <c r="D29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="7"/>
+      <c r="E29" s="65">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
@@ -1272,7 +1321,9 @@
       <c r="D30" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="41"/>
+      <c r="E30" s="67">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
@@ -1281,7 +1332,9 @@
         <v>36</v>
       </c>
       <c r="D31" s="8"/>
-      <c r="E31" s="42"/>
+      <c r="E31" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
@@ -1299,7 +1352,9 @@
       <c r="D33" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="43"/>
+      <c r="E33" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
@@ -1308,7 +1363,9 @@
       <c r="D34" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="7"/>
+      <c r="E34" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
@@ -1317,7 +1374,9 @@
       <c r="D35" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="10"/>
+      <c r="E35" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
@@ -1326,7 +1385,9 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="42"/>
+      <c r="E36" s="28">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
@@ -1345,7 +1406,7 @@
       <c r="B38" s="5"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="24"/>
+      <c r="E38" s="68"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
@@ -1381,7 +1442,9 @@
       <c r="D42" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="7"/>
+      <c r="E42" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
@@ -1390,7 +1453,9 @@
       <c r="D43" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="7"/>
+      <c r="E43" s="10">
+        <v>0</v>
+      </c>
       <c r="F43" s="7"/>
     </row>
     <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1400,7 +1465,9 @@
       <c r="D44" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="7"/>
+      <c r="E44" s="10">
+        <v>0</v>
+      </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
     </row>
@@ -1411,7 +1478,7 @@
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="9"/>
+      <c r="E45" s="10"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
@@ -1420,7 +1487,9 @@
       <c r="D46" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="7"/>
+      <c r="E46" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
@@ -1429,7 +1498,9 @@
       <c r="D47" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="7"/>
+      <c r="E47" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
@@ -1438,7 +1509,9 @@
       <c r="D48" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="7"/>
+      <c r="E48" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
@@ -1456,7 +1529,9 @@
       <c r="D50" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="7"/>
+      <c r="E50" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
@@ -1465,7 +1540,9 @@
       <c r="D51" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="7"/>
+      <c r="E51" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
@@ -1474,7 +1551,9 @@
       <c r="D52" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E52" s="7"/>
+      <c r="E52" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
@@ -1492,7 +1571,9 @@
       <c r="D54" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="7"/>
+      <c r="E54" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
@@ -1501,7 +1582,9 @@
       <c r="D55" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="40"/>
+      <c r="E55" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
@@ -1510,7 +1593,9 @@
       <c r="D56" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E56" s="44"/>
+      <c r="E56" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
@@ -1519,7 +1604,7 @@
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
-      <c r="E57" s="22"/>
+      <c r="E57" s="9"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
@@ -1528,7 +1613,9 @@
       <c r="D58" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="43"/>
+      <c r="E58" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
@@ -1537,7 +1624,9 @@
       <c r="D59" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E59" s="45"/>
+      <c r="E59" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
@@ -1546,7 +1635,9 @@
       <c r="D60" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E60" s="43"/>
+      <c r="E60" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
@@ -1564,7 +1655,9 @@
       <c r="D62" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="7"/>
+      <c r="E62" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
@@ -1573,7 +1666,9 @@
       <c r="D63" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="7"/>
+      <c r="E63" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
@@ -1582,7 +1677,9 @@
       <c r="D64" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E64" s="7"/>
+      <c r="E64" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
@@ -1600,7 +1697,9 @@
       <c r="D66" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E66" s="7"/>
+      <c r="E66" s="10">
+        <v>0</v>
+      </c>
       <c r="G66" s="7"/>
     </row>
     <row r="67" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1610,7 +1709,9 @@
       <c r="D67" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E67" s="7"/>
+      <c r="E67" s="10">
+        <v>0</v>
+      </c>
       <c r="G67" s="7"/>
     </row>
     <row r="68" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1620,7 +1721,9 @@
       <c r="D68" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="7"/>
+      <c r="E68" s="10">
+        <v>0</v>
+      </c>
       <c r="G68" s="7"/>
     </row>
     <row r="69" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1639,7 +1742,9 @@
       <c r="D70" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E70" s="14"/>
+      <c r="E70" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
@@ -1648,7 +1753,9 @@
       <c r="D71" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E71" s="14"/>
+      <c r="E71" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
@@ -1657,7 +1764,9 @@
       <c r="D72" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E72" s="21"/>
+      <c r="E72" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
@@ -1684,7 +1793,9 @@
       <c r="D75" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="40"/>
+      <c r="E75" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
@@ -1693,7 +1804,9 @@
       <c r="D76" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E76" s="46"/>
+      <c r="E76" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
@@ -1702,7 +1815,7 @@
         <v>20</v>
       </c>
       <c r="D77" s="8"/>
-      <c r="E77" s="14"/>
+      <c r="E77" s="67"/>
     </row>
     <row r="78" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
@@ -1711,7 +1824,9 @@
       <c r="D78" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E78" s="7"/>
+      <c r="E78" s="10">
+        <v>0</v>
+      </c>
       <c r="F78" s="19"/>
     </row>
     <row r="79" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1721,7 +1836,9 @@
       <c r="D79" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="40"/>
+      <c r="E79" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
@@ -1730,7 +1847,7 @@
         <v>19</v>
       </c>
       <c r="D80" s="8"/>
-      <c r="E80" s="15"/>
+      <c r="E80" s="66"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
@@ -1739,7 +1856,9 @@
       <c r="D81" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E81" s="7"/>
+      <c r="E81" s="10">
+        <v>0</v>
+      </c>
       <c r="F81" s="20"/>
     </row>
     <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1749,7 +1868,9 @@
       <c r="D82" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E82" s="7"/>
+      <c r="E82" s="10">
+        <v>0</v>
+      </c>
       <c r="F82" s="19"/>
     </row>
     <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1759,7 +1880,7 @@
         <v>18</v>
       </c>
       <c r="D83" s="8"/>
-      <c r="E83" s="7"/>
+      <c r="E83" s="14"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
@@ -1768,7 +1889,9 @@
       <c r="D84" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E84" s="18"/>
+      <c r="E84" s="68">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
@@ -1777,7 +1900,9 @@
       <c r="D85" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="18"/>
+      <c r="E85" s="68">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
@@ -1795,7 +1920,9 @@
       <c r="D87" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="7"/>
+      <c r="E87" s="68">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
@@ -1804,7 +1931,9 @@
       <c r="D88" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E88" s="7"/>
+      <c r="E88" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
@@ -1822,7 +1951,9 @@
       <c r="D90" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E90" s="7"/>
+      <c r="E90" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
@@ -1831,7 +1962,9 @@
       <c r="D91" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="7"/>
+      <c r="E91" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
@@ -1840,7 +1973,9 @@
       <c r="D92" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="44"/>
+      <c r="E92" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
@@ -1879,7 +2014,9 @@
       <c r="D96" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E96" s="7"/>
+      <c r="E96" s="10">
+        <v>0</v>
+      </c>
       <c r="F96" s="13"/>
       <c r="G96" s="8"/>
       <c r="I96" s="12"/>
@@ -1903,7 +2040,9 @@
       <c r="D98" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E98" s="40"/>
+      <c r="E98" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="5" t="s">
@@ -1919,7 +2058,9 @@
       <c r="D100" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E100" s="7"/>
+      <c r="E100" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="5" t="s">
@@ -1935,7 +2076,9 @@
       <c r="D102" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E102" s="10"/>
+      <c r="E102" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B103" s="5" t="s">
@@ -1951,7 +2094,9 @@
       <c r="D104" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E104" s="43"/>
+      <c r="E104" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B105" s="5" t="s">
@@ -1959,7 +2104,7 @@
       </c>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
-      <c r="E105" s="7"/>
+      <c r="E105" s="9"/>
     </row>
     <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B106" s="8"/>
@@ -1967,7 +2112,9 @@
       <c r="D106" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E106" s="9"/>
+      <c r="E106" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="5" t="s">
@@ -1983,7 +2130,9 @@
       <c r="D108" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E108" s="7"/>
+      <c r="E108" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
@@ -2000,14 +2149,19 @@
       <c r="D110" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E110" s="7"/>
+      <c r="E110" s="10">
+        <v>0</v>
+      </c>
       <c r="F110" s="6"/>
     </row>
     <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E111" s="4"/>
+      <c r="E111" s="4">
+        <f>SUM(E95:E110)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
@@ -2052,272 +2206,272 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
       <c r="H5" s="32"/>
       <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="51" t="s">
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="63" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="52"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="64"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="54"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="46"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49" t="s">
+      <c r="A9" s="43"/>
+      <c r="B9" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="54"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="46"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49" t="s">
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="49"/>
+      <c r="D10" s="43"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49" t="s">
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="55">
+      <c r="E11" s="47">
         <v>73243251.340000004</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49" t="s">
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="55">
+      <c r="E12" s="47">
         <v>255578809.05000001</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49" t="s">
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="55">
+      <c r="E13" s="47">
         <v>43997999.350000001</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49" t="s">
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="49"/>
+      <c r="D14" s="43"/>
       <c r="E14" s="25">
         <f>SUM(E11:E13)</f>
         <v>372820059.74000001</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49" t="s">
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="49"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="28"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49" t="s">
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="55">
+      <c r="E16" s="47">
         <v>42360</v>
       </c>
-      <c r="F16" s="55"/>
+      <c r="F16" s="47"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49" t="s">
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="55">
+      <c r="E17" s="47">
         <v>132285699.68000001</v>
       </c>
-      <c r="F17" s="55"/>
+      <c r="F17" s="47"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="49" t="s">
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="40">
+      <c r="E18" s="36">
         <v>117482180.76000001</v>
       </c>
-      <c r="F18" s="55"/>
+      <c r="F18" s="47"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49" t="s">
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="49"/>
+      <c r="D19" s="43"/>
       <c r="E19" s="25">
         <f>SUM(E16:E18)</f>
         <v>249810240.44</v>
       </c>
-      <c r="F19" s="55"/>
+      <c r="F19" s="47"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
-      <c r="B20" s="49" t="s">
+      <c r="A20" s="43"/>
+      <c r="B20" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="55"/>
+      <c r="F20" s="47"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49" t="s">
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="49"/>
-      <c r="E21" s="55">
+      <c r="D21" s="43"/>
+      <c r="E21" s="47">
         <v>1188409775</v>
       </c>
-      <c r="F21" s="55"/>
+      <c r="F21" s="47"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49" t="s">
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="49"/>
-      <c r="E22" s="55">
+      <c r="D22" s="43"/>
+      <c r="E22" s="47">
         <v>1672306.4</v>
       </c>
-      <c r="F22" s="55"/>
+      <c r="F22" s="47"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49" t="s">
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="49"/>
+      <c r="D23" s="43"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49" t="s">
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49" t="s">
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43" t="s">
         <v>42</v>
       </c>
       <c r="E25" s="14">
@@ -2325,41 +2479,41 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49" t="s">
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="55">
+      <c r="E26" s="47">
         <v>2397.41</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49" t="s">
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="41">
+      <c r="E27" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49" t="s">
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="49"/>
+      <c r="D28" s="43"/>
       <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49" t="s">
+      <c r="A29" s="43"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43" t="s">
         <v>38</v>
       </c>
       <c r="E29" s="7">
@@ -2367,52 +2521,52 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49" t="s">
+      <c r="A30" s="43"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="41">
+      <c r="E30" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49" t="s">
+      <c r="A31" s="43"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="49"/>
-      <c r="E31" s="55">
+      <c r="D31" s="43"/>
+      <c r="E31" s="47">
         <v>121230872.68000001</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49" t="s">
+      <c r="A32" s="43"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="49"/>
+      <c r="D32" s="43"/>
       <c r="E32" s="9"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49" t="s">
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="55">
+      <c r="E33" s="47">
         <v>3261770.86</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49" t="s">
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43" t="s">
         <v>33</v>
       </c>
       <c r="E34" s="7">
@@ -2420,10 +2574,10 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49" t="s">
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43" t="s">
         <v>32</v>
       </c>
       <c r="E35" s="10">
@@ -2431,151 +2585,151 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
-      <c r="B36" s="49" t="s">
+      <c r="A36" s="43"/>
+      <c r="B36" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="55">
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="47">
         <v>173058521.13</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
-      <c r="B37" s="53" t="s">
+      <c r="A37" s="43"/>
+      <c r="B37" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
       <c r="E37" s="25">
         <f>SUM(E14,E19,E21:E36)</f>
         <v>2110265943.6600003</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
       <c r="E38" s="24"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="53"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
       <c r="E39" s="14"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="53" t="s">
+      <c r="A40" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
       <c r="E40" s="14"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
-      <c r="B41" s="53" t="s">
+      <c r="A41" s="43"/>
+      <c r="B41" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
       <c r="E41" s="9"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49" t="s">
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="55">
+      <c r="E42" s="47">
         <v>366031249.60000002</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49" t="s">
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="55">
+      <c r="E43" s="47">
         <v>277622920.57999998</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="49"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" s="55">
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="47">
         <v>1133559</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
-      <c r="B45" s="53" t="s">
+      <c r="A45" s="43"/>
+      <c r="B45" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
       <c r="E45" s="9"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="49"/>
-      <c r="B46" s="49"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="49" t="s">
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="55">
+      <c r="E46" s="47">
         <v>98993226.849999994</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
-      <c r="B47" s="49"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49" t="s">
+      <c r="A47" s="43"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="55">
+      <c r="E47" s="47">
         <v>124476397.08</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="49"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" s="55">
+      <c r="A48" s="43"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="47">
         <v>754635</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="49"/>
-      <c r="B49" s="53" t="s">
+      <c r="A49" s="43"/>
+      <c r="B49" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
       <c r="E49" s="10"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="58"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="49" t="s">
+      <c r="A50" s="50"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E50" s="7">
@@ -2583,10 +2737,10 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="49"/>
-      <c r="B51" s="49"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49" t="s">
+      <c r="A51" s="43"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43" t="s">
         <v>25</v>
       </c>
       <c r="E51" s="7">
@@ -2594,10 +2748,10 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="49"/>
-      <c r="B52" s="49"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49" t="s">
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43" t="s">
         <v>2</v>
       </c>
       <c r="E52" s="7">
@@ -2605,187 +2759,187 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="49"/>
-      <c r="B53" s="53" t="s">
+      <c r="A53" s="43"/>
+      <c r="B53" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="49"/>
-      <c r="D53" s="49"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
       <c r="E53" s="10"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="49"/>
-      <c r="B54" s="49"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49" t="s">
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="55">
+      <c r="E54" s="47">
         <v>1842731.62</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="49"/>
-      <c r="B55" s="49"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49" t="s">
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="55">
+      <c r="E55" s="47">
         <v>4345193.8099999996</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="49"/>
-      <c r="B56" s="49"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E56" s="44">
+      <c r="A56" s="43"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="49"/>
-      <c r="B57" s="53" t="s">
+      <c r="A57" s="43"/>
+      <c r="B57" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
       <c r="E57" s="22"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="49"/>
-      <c r="B58" s="49"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="49" t="s">
+      <c r="A58" s="43"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="55">
+      <c r="E58" s="47">
         <v>41016318.240000002</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="49"/>
-      <c r="B59" s="49"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49" t="s">
+      <c r="A59" s="43"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="E59" s="55">
+      <c r="E59" s="47">
         <v>41720338.109999999</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="49"/>
-      <c r="B60" s="49"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E60" s="43">
+      <c r="A60" s="43"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="49"/>
-      <c r="B61" s="53" t="s">
+      <c r="A61" s="43"/>
+      <c r="B61" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="49"/>
-      <c r="D61" s="49"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
       <c r="E61" s="22"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="49"/>
-      <c r="B62" s="49"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="49" t="s">
+      <c r="A62" s="43"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="55">
+      <c r="E62" s="47">
         <v>46097368.32</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="49"/>
-      <c r="B63" s="53"/>
-      <c r="C63" s="49"/>
-      <c r="D63" s="49" t="s">
+      <c r="A63" s="43"/>
+      <c r="B63" s="45"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="55">
+      <c r="E63" s="47">
         <v>42813889.259999998</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="49"/>
-      <c r="B64" s="49"/>
-      <c r="C64" s="49"/>
-      <c r="D64" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E64" s="55">
+      <c r="A64" s="43"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" s="47">
         <v>256085</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="49"/>
-      <c r="B65" s="53" t="s">
+      <c r="A65" s="43"/>
+      <c r="B65" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="49"/>
-      <c r="D65" s="49"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="43"/>
       <c r="E65" s="10"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="49"/>
-      <c r="B66" s="49"/>
-      <c r="C66" s="49"/>
-      <c r="D66" s="49" t="s">
+      <c r="A66" s="43"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E66" s="55">
+      <c r="E66" s="47">
         <v>94394945.799999997</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="49"/>
-      <c r="B67" s="49"/>
-      <c r="C67" s="49"/>
-      <c r="D67" s="49" t="s">
+      <c r="A67" s="43"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="E67" s="55">
+      <c r="E67" s="47">
         <v>86311437.349999994</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="49"/>
-      <c r="B68" s="49"/>
-      <c r="C68" s="49"/>
-      <c r="D68" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E68" s="55">
+      <c r="A68" s="43"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" s="47">
         <v>85590776.569999993</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="49"/>
-      <c r="B69" s="53" t="s">
+      <c r="A69" s="43"/>
+      <c r="B69" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="49"/>
-      <c r="D69" s="49"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="43"/>
       <c r="E69" s="9"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="49"/>
-      <c r="B70" s="49"/>
-      <c r="C70" s="49"/>
-      <c r="D70" s="49" t="s">
+      <c r="A70" s="43"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E70" s="14">
@@ -2793,10 +2947,10 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="49"/>
-      <c r="B71" s="49"/>
-      <c r="C71" s="49"/>
-      <c r="D71" s="49" t="s">
+      <c r="A71" s="43"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43" t="s">
         <v>25</v>
       </c>
       <c r="E71" s="14">
@@ -2804,10 +2958,10 @@
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="49"/>
-      <c r="B72" s="49"/>
-      <c r="C72" s="49"/>
-      <c r="D72" s="49" t="s">
+      <c r="A72" s="43"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="43" t="s">
         <v>2</v>
       </c>
       <c r="E72" s="21">
@@ -2815,121 +2969,121 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="49"/>
-      <c r="B73" s="53" t="s">
+      <c r="A73" s="43"/>
+      <c r="B73" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C73" s="49"/>
-      <c r="D73" s="49"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
       <c r="E73" s="9"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="49"/>
-      <c r="B74" s="49"/>
-      <c r="C74" s="49" t="s">
+      <c r="A74" s="43"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="49"/>
+      <c r="D74" s="43"/>
       <c r="E74" s="14"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="49"/>
-      <c r="B75" s="49"/>
-      <c r="C75" s="49"/>
-      <c r="D75" s="49" t="s">
+      <c r="A75" s="43"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="55">
+      <c r="E75" s="47">
         <v>8970326.6699999999</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="49"/>
-      <c r="B76" s="49"/>
-      <c r="C76" s="49"/>
-      <c r="D76" s="49" t="s">
+      <c r="A76" s="43"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="E76" s="55">
+      <c r="E76" s="47">
         <v>17794887.989999998</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="49"/>
-      <c r="B77" s="49"/>
-      <c r="C77" s="59" t="s">
+      <c r="A77" s="43"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="49"/>
+      <c r="D77" s="43"/>
       <c r="E77" s="14"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="49"/>
-      <c r="B78" s="49"/>
-      <c r="C78" s="49"/>
-      <c r="D78" s="49" t="s">
+      <c r="A78" s="43"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="E78" s="55">
+      <c r="E78" s="47">
         <v>41168031.899999999</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="49"/>
-      <c r="B79" s="49"/>
-      <c r="C79" s="49"/>
-      <c r="D79" s="49" t="s">
+      <c r="A79" s="43"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="40">
+      <c r="E79" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="49"/>
-      <c r="B80" s="49"/>
-      <c r="C80" s="49" t="s">
+      <c r="A80" s="43"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="49"/>
+      <c r="D80" s="43"/>
       <c r="E80" s="15"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="49"/>
-      <c r="B81" s="49"/>
-      <c r="C81" s="49"/>
-      <c r="D81" s="59" t="s">
+      <c r="A81" s="43"/>
+      <c r="B81" s="43"/>
+      <c r="C81" s="43"/>
+      <c r="D81" s="51" t="s">
         <v>14</v>
       </c>
       <c r="E81" s="7">
         <v>0</v>
       </c>
-      <c r="F81" s="60"/>
+      <c r="F81" s="52"/>
     </row>
     <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="49"/>
-      <c r="B82" s="49"/>
-      <c r="C82" s="49"/>
-      <c r="D82" s="59" t="s">
+      <c r="A82" s="43"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="E82" s="55">
+      <c r="E82" s="47">
         <v>2134766.0499999998</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="49"/>
-      <c r="B83" s="49"/>
-      <c r="C83" s="49" t="s">
+      <c r="A83" s="43"/>
+      <c r="B83" s="43"/>
+      <c r="C83" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D83" s="49"/>
+      <c r="D83" s="43"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="49"/>
-      <c r="B84" s="49"/>
-      <c r="C84" s="49"/>
-      <c r="D84" s="49" t="s">
+      <c r="A84" s="43"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="43" t="s">
         <v>14</v>
       </c>
       <c r="E84" s="18">
@@ -2937,10 +3091,10 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="49"/>
-      <c r="B85" s="49"/>
-      <c r="C85" s="49"/>
-      <c r="D85" s="49" t="s">
+      <c r="A85" s="43"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="43" t="s">
         <v>13</v>
       </c>
       <c r="E85" s="18">
@@ -2948,19 +3102,19 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="49"/>
-      <c r="B86" s="49"/>
-      <c r="C86" s="49" t="s">
+      <c r="A86" s="43"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D86" s="49"/>
+      <c r="D86" s="43"/>
       <c r="E86" s="14"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="49"/>
-      <c r="B87" s="49"/>
-      <c r="C87" s="49"/>
-      <c r="D87" s="49" t="s">
+      <c r="A87" s="43"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="43" t="s">
         <v>14</v>
       </c>
       <c r="E87" s="7">
@@ -2968,10 +3122,10 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="49"/>
-      <c r="B88" s="49"/>
-      <c r="C88" s="49"/>
-      <c r="D88" s="49" t="s">
+      <c r="A88" s="43"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="43" t="s">
         <v>13</v>
       </c>
       <c r="E88" s="7">
@@ -2979,19 +3133,19 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="49"/>
-      <c r="B89" s="49"/>
-      <c r="C89" s="49" t="s">
+      <c r="A89" s="43"/>
+      <c r="B89" s="43"/>
+      <c r="C89" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D89" s="49"/>
+      <c r="D89" s="43"/>
       <c r="E89" s="14"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="49"/>
-      <c r="B90" s="49"/>
-      <c r="C90" s="49"/>
-      <c r="D90" s="49" t="s">
+      <c r="A90" s="43"/>
+      <c r="B90" s="43"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="43" t="s">
         <v>15</v>
       </c>
       <c r="E90" s="7">
@@ -2999,124 +3153,124 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="49"/>
-      <c r="B91" s="49"/>
-      <c r="C91" s="49"/>
-      <c r="D91" s="49" t="s">
+      <c r="A91" s="43"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="55">
+      <c r="E91" s="47">
         <v>157468938.00999999</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="49"/>
-      <c r="B92" s="49"/>
-      <c r="C92" s="49"/>
-      <c r="D92" s="49" t="s">
+      <c r="A92" s="43"/>
+      <c r="B92" s="43"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="55">
+      <c r="E92" s="47">
         <v>34200</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="53" t="s">
+      <c r="A93" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D93" s="49"/>
+      <c r="D93" s="43"/>
       <c r="E93" s="17">
         <f>SUM(E41:E92)</f>
         <v>1540972222.8100002</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="53" t="s">
+      <c r="A94" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B94" s="49"/>
-      <c r="C94" s="53"/>
-      <c r="D94" s="59"/>
+      <c r="B94" s="43"/>
+      <c r="C94" s="45"/>
+      <c r="D94" s="51"/>
       <c r="E94" s="14"/>
     </row>
     <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="49"/>
-      <c r="B95" s="53" t="s">
+      <c r="A95" s="43"/>
+      <c r="B95" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="49"/>
-      <c r="D95" s="49"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="43"/>
       <c r="E95" s="15"/>
-      <c r="H95" s="61"/>
-      <c r="I95" s="54"/>
+      <c r="H95" s="53"/>
+      <c r="I95" s="46"/>
     </row>
     <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="49"/>
-      <c r="B96" s="49"/>
-      <c r="C96" s="49"/>
-      <c r="D96" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E96" s="55">
+      <c r="A96" s="43"/>
+      <c r="B96" s="43"/>
+      <c r="C96" s="43"/>
+      <c r="D96" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" s="47">
         <v>6559132.4900000002</v>
       </c>
-      <c r="F96" s="61"/>
-      <c r="G96" s="49"/>
-      <c r="I96" s="54"/>
+      <c r="F96" s="53"/>
+      <c r="G96" s="43"/>
+      <c r="I96" s="46"/>
     </row>
     <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="49"/>
-      <c r="B97" s="53" t="s">
+      <c r="A97" s="43"/>
+      <c r="B97" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C97" s="49"/>
-      <c r="D97" s="49"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="43"/>
       <c r="E97" s="14"/>
-      <c r="F97" s="61"/>
-      <c r="G97" s="49"/>
-      <c r="H97" s="61"/>
-      <c r="I97" s="54"/>
+      <c r="F97" s="53"/>
+      <c r="G97" s="43"/>
+      <c r="H97" s="53"/>
+      <c r="I97" s="46"/>
     </row>
     <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B98" s="49"/>
-      <c r="C98" s="49"/>
-      <c r="D98" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E98" s="40">
+      <c r="B98" s="43"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="53" t="s">
+      <c r="B99" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C99" s="49"/>
-      <c r="D99" s="49"/>
+      <c r="C99" s="43"/>
+      <c r="D99" s="43"/>
       <c r="E99" s="9"/>
     </row>
     <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="49"/>
-      <c r="C100" s="49"/>
-      <c r="D100" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E100" s="55">
+      <c r="B100" s="43"/>
+      <c r="C100" s="43"/>
+      <c r="D100" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" s="47">
         <v>166700</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="53" t="s">
+      <c r="B101" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C101" s="49"/>
-      <c r="D101" s="49"/>
+      <c r="C101" s="43"/>
+      <c r="D101" s="43"/>
       <c r="E101" s="9"/>
     </row>
     <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B102" s="49"/>
-      <c r="C102" s="57"/>
-      <c r="D102" s="49" t="s">
+      <c r="B102" s="43"/>
+      <c r="C102" s="49"/>
+      <c r="D102" s="43" t="s">
         <v>2</v>
       </c>
       <c r="E102" s="10">
@@ -3124,80 +3278,80 @@
       </c>
     </row>
     <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B103" s="53" t="s">
+      <c r="B103" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C103" s="49"/>
-      <c r="D103" s="49"/>
+      <c r="C103" s="43"/>
+      <c r="D103" s="43"/>
       <c r="E103" s="9"/>
     </row>
     <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B104" s="49"/>
-      <c r="C104" s="49"/>
-      <c r="D104" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E104" s="55">
+      <c r="B104" s="43"/>
+      <c r="C104" s="43"/>
+      <c r="D104" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E104" s="47">
         <v>2349663.71</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B105" s="53" t="s">
+      <c r="B105" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C105" s="49"/>
-      <c r="D105" s="49"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="43"/>
     </row>
     <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B106" s="49"/>
-      <c r="C106" s="49"/>
-      <c r="D106" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E106" s="55">
+      <c r="B106" s="43"/>
+      <c r="C106" s="43"/>
+      <c r="D106" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E106" s="47">
         <v>1321840.7</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="53" t="s">
+      <c r="B107" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C107" s="49"/>
-      <c r="D107" s="49"/>
+      <c r="C107" s="43"/>
+      <c r="D107" s="43"/>
       <c r="E107" s="9"/>
     </row>
     <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="49"/>
-      <c r="C108" s="49"/>
-      <c r="D108" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E108" s="55">
+      <c r="B108" s="43"/>
+      <c r="C108" s="43"/>
+      <c r="D108" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E108" s="47">
         <v>43239918</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="53"/>
-      <c r="B109" s="53" t="s">
+      <c r="A109" s="45"/>
+      <c r="B109" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C109" s="49"/>
-      <c r="D109" s="49"/>
+      <c r="C109" s="43"/>
+      <c r="D109" s="43"/>
       <c r="E109" s="9"/>
     </row>
     <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B110" s="49"/>
-      <c r="C110" s="49"/>
-      <c r="D110" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E110" s="55">
+      <c r="B110" s="43"/>
+      <c r="C110" s="43"/>
+      <c r="D110" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E110" s="47">
         <v>150969181.16999999</v>
       </c>
-      <c r="F110" s="62"/>
+      <c r="F110" s="54"/>
     </row>
     <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="53" t="s">
+      <c r="A111" s="45" t="s">
         <v>1</v>
       </c>
       <c r="E111" s="4">
@@ -3206,12 +3360,12 @@
       </c>
     </row>
     <row r="112" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B112" s="64"/>
-      <c r="C112" s="64"/>
-      <c r="D112" s="64"/>
+      <c r="A112" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" s="56"/>
+      <c r="C112" s="56"/>
+      <c r="D112" s="56"/>
       <c r="E112" s="1">
         <f>SUM(E93,E111)</f>
         <v>1745578658.8800001</v>
@@ -3248,115 +3402,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
       <c r="H5" s="32"/>
       <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="51" t="s">
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="63" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="52"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="64"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="54"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="46"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49" t="s">
+      <c r="A9" s="43"/>
+      <c r="B9" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="54"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="46"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49" t="s">
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="49"/>
+      <c r="D10" s="43"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49" t="s">
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="7">
@@ -3364,10 +3518,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49" t="s">
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43" t="s">
         <v>55</v>
       </c>
       <c r="E12" s="7">
@@ -3375,10 +3529,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49" t="s">
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43" t="s">
         <v>54</v>
       </c>
       <c r="E13" s="7">
@@ -3386,31 +3540,31 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49" t="s">
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="49"/>
+      <c r="D14" s="43"/>
       <c r="E14" s="25">
         <f>SUM(E11:E13)</f>
         <v>125426867.73</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49" t="s">
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="49"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="28"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49" t="s">
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43" t="s">
         <v>51</v>
       </c>
       <c r="E16" s="7">
@@ -3418,10 +3572,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49" t="s">
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="7">
@@ -3429,84 +3583,84 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="49" t="s">
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="40">
+      <c r="E18" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49" t="s">
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="49"/>
+      <c r="D19" s="43"/>
       <c r="E19" s="25">
         <f>SUM(E16:E18)</f>
         <v>71709387.969999999</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
-      <c r="B20" s="49" t="s">
+      <c r="A20" s="43"/>
+      <c r="B20" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
       <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49" t="s">
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="49"/>
+      <c r="D21" s="43"/>
       <c r="E21" s="7">
         <v>558049311</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49" t="s">
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="49"/>
+      <c r="D22" s="43"/>
       <c r="E22" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49" t="s">
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="49"/>
+      <c r="D23" s="43"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49" t="s">
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49" t="s">
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43" t="s">
         <v>42</v>
       </c>
       <c r="E25" s="14">
@@ -3514,41 +3668,41 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49" t="s">
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="40">
+      <c r="E26" s="36">
         <v>3412661.68</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49" t="s">
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="41">
+      <c r="E27" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49" t="s">
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="49"/>
+      <c r="D28" s="43"/>
       <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49" t="s">
+      <c r="A29" s="43"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43" t="s">
         <v>38</v>
       </c>
       <c r="E29" s="7">
@@ -3556,52 +3710,52 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49" t="s">
+      <c r="A30" s="43"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="41">
+      <c r="E30" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49" t="s">
+      <c r="A31" s="43"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="49"/>
-      <c r="E31" s="42">
+      <c r="D31" s="43"/>
+      <c r="E31" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49" t="s">
+      <c r="A32" s="43"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="49"/>
+      <c r="D32" s="43"/>
       <c r="E32" s="9"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49" t="s">
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="43">
+      <c r="E33" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49" t="s">
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43" t="s">
         <v>33</v>
       </c>
       <c r="E34" s="7">
@@ -3609,10 +3763,10 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49" t="s">
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43" t="s">
         <v>32</v>
       </c>
       <c r="E35" s="10">
@@ -3620,67 +3774,67 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
-      <c r="B36" s="49" t="s">
+      <c r="A36" s="43"/>
+      <c r="B36" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="42">
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
-      <c r="B37" s="53" t="s">
+      <c r="A37" s="43"/>
+      <c r="B37" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
       <c r="E37" s="25">
         <f>SUM(E14,E19,E21:E36)</f>
         <v>758598228.38</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
       <c r="E38" s="24"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="53"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
       <c r="E39" s="14"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="53" t="s">
+      <c r="A40" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
       <c r="E40" s="14"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
-      <c r="B41" s="53" t="s">
+      <c r="A41" s="43"/>
+      <c r="B41" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
       <c r="E41" s="9"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49" t="s">
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E42" s="7">
@@ -3688,10 +3842,10 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49" t="s">
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43" t="s">
         <v>25</v>
       </c>
       <c r="E43" s="7">
@@ -3699,10 +3853,10 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="49"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49" t="s">
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43" t="s">
         <v>2</v>
       </c>
       <c r="E44" s="7">
@@ -3710,19 +3864,19 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
-      <c r="B45" s="53" t="s">
+      <c r="A45" s="43"/>
+      <c r="B45" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
       <c r="E45" s="9"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="49"/>
-      <c r="B46" s="49"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="49" t="s">
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E46" s="7">
@@ -3730,10 +3884,10 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
-      <c r="B47" s="49"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49" t="s">
+      <c r="A47" s="43"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43" t="s">
         <v>25</v>
       </c>
       <c r="E47" s="7">
@@ -3741,10 +3895,10 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="49"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49" t="s">
+      <c r="A48" s="43"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43" t="s">
         <v>2</v>
       </c>
       <c r="E48" s="7">
@@ -3752,19 +3906,19 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="49"/>
-      <c r="B49" s="53" t="s">
+      <c r="A49" s="43"/>
+      <c r="B49" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
       <c r="E49" s="10"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="58"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="49" t="s">
+      <c r="A50" s="50"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E50" s="7">
@@ -3772,10 +3926,10 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="49"/>
-      <c r="B51" s="49"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49" t="s">
+      <c r="A51" s="43"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43" t="s">
         <v>25</v>
       </c>
       <c r="E51" s="7">
@@ -3783,10 +3937,10 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="49"/>
-      <c r="B52" s="49"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49" t="s">
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43" t="s">
         <v>2</v>
       </c>
       <c r="E52" s="7">
@@ -3794,19 +3948,19 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="49"/>
-      <c r="B53" s="53" t="s">
+      <c r="A53" s="43"/>
+      <c r="B53" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="49"/>
-      <c r="D53" s="49"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
       <c r="E53" s="10"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="49"/>
-      <c r="B54" s="49"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49" t="s">
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E54" s="7">
@@ -3814,83 +3968,83 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="49"/>
-      <c r="B55" s="49"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49" t="s">
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="40">
+      <c r="E55" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="49"/>
-      <c r="B56" s="49"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E56" s="44">
+      <c r="A56" s="43"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="49"/>
-      <c r="B57" s="53" t="s">
+      <c r="A57" s="43"/>
+      <c r="B57" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
       <c r="E57" s="22"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="49"/>
-      <c r="B58" s="49"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="49" t="s">
+      <c r="A58" s="43"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="43">
+      <c r="E58" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="49"/>
-      <c r="B59" s="49"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49" t="s">
+      <c r="A59" s="43"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="E59" s="45">
+      <c r="E59" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="49"/>
-      <c r="B60" s="49"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E60" s="43">
+      <c r="A60" s="43"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="49"/>
-      <c r="B61" s="53" t="s">
+      <c r="A61" s="43"/>
+      <c r="B61" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="49"/>
-      <c r="D61" s="49"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
       <c r="E61" s="22"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="49"/>
-      <c r="B62" s="49"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="49" t="s">
+      <c r="A62" s="43"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E62" s="7">
@@ -3898,10 +4052,10 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="49"/>
-      <c r="B63" s="53"/>
-      <c r="C63" s="49"/>
-      <c r="D63" s="49" t="s">
+      <c r="A63" s="43"/>
+      <c r="B63" s="45"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="43" t="s">
         <v>25</v>
       </c>
       <c r="E63" s="7">
@@ -3909,10 +4063,10 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="49"/>
-      <c r="B64" s="49"/>
-      <c r="C64" s="49"/>
-      <c r="D64" s="49" t="s">
+      <c r="A64" s="43"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="43" t="s">
         <v>2</v>
       </c>
       <c r="E64" s="7">
@@ -3920,19 +4074,19 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="49"/>
-      <c r="B65" s="53" t="s">
+      <c r="A65" s="43"/>
+      <c r="B65" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="49"/>
-      <c r="D65" s="49"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="43"/>
       <c r="E65" s="10"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="49"/>
-      <c r="B66" s="49"/>
-      <c r="C66" s="49"/>
-      <c r="D66" s="49" t="s">
+      <c r="A66" s="43"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E66" s="7">
@@ -3940,10 +4094,10 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="49"/>
-      <c r="B67" s="49"/>
-      <c r="C67" s="49"/>
-      <c r="D67" s="49" t="s">
+      <c r="A67" s="43"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43" t="s">
         <v>25</v>
       </c>
       <c r="E67" s="7">
@@ -3951,10 +4105,10 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="49"/>
-      <c r="B68" s="49"/>
-      <c r="C68" s="49"/>
-      <c r="D68" s="49" t="s">
+      <c r="A68" s="43"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="43" t="s">
         <v>2</v>
       </c>
       <c r="E68" s="7">
@@ -3962,19 +4116,19 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="49"/>
-      <c r="B69" s="53" t="s">
+      <c r="A69" s="43"/>
+      <c r="B69" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="49"/>
-      <c r="D69" s="49"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="43"/>
       <c r="E69" s="9"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="49"/>
-      <c r="B70" s="49"/>
-      <c r="C70" s="49"/>
-      <c r="D70" s="49" t="s">
+      <c r="A70" s="43"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E70" s="14">
@@ -3982,10 +4136,10 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="49"/>
-      <c r="B71" s="49"/>
-      <c r="C71" s="49"/>
-      <c r="D71" s="49" t="s">
+      <c r="A71" s="43"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43" t="s">
         <v>25</v>
       </c>
       <c r="E71" s="14">
@@ -3993,10 +4147,10 @@
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="49"/>
-      <c r="B72" s="49"/>
-      <c r="C72" s="49"/>
-      <c r="D72" s="49" t="s">
+      <c r="A72" s="43"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="43" t="s">
         <v>2</v>
       </c>
       <c r="E72" s="21">
@@ -4004,59 +4158,59 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="49"/>
-      <c r="B73" s="53" t="s">
+      <c r="A73" s="43"/>
+      <c r="B73" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C73" s="49"/>
-      <c r="D73" s="49"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
       <c r="E73" s="9"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="49"/>
-      <c r="B74" s="49"/>
-      <c r="C74" s="49" t="s">
+      <c r="A74" s="43"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="49"/>
+      <c r="D74" s="43"/>
       <c r="E74" s="14"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="49"/>
-      <c r="B75" s="49"/>
-      <c r="C75" s="49"/>
-      <c r="D75" s="49" t="s">
+      <c r="A75" s="43"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="40">
+      <c r="E75" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="49"/>
-      <c r="B76" s="49"/>
-      <c r="C76" s="49"/>
-      <c r="D76" s="49" t="s">
+      <c r="A76" s="43"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="E76" s="46">
+      <c r="E76" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="49"/>
-      <c r="B77" s="49"/>
-      <c r="C77" s="59" t="s">
+      <c r="A77" s="43"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="49"/>
+      <c r="D77" s="43"/>
       <c r="E77" s="14"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="49"/>
-      <c r="B78" s="49"/>
-      <c r="C78" s="49"/>
-      <c r="D78" s="49" t="s">
+      <c r="A78" s="43"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="43" t="s">
         <v>14</v>
       </c>
       <c r="E78" s="7">
@@ -4064,42 +4218,42 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="49"/>
-      <c r="B79" s="49"/>
-      <c r="C79" s="49"/>
-      <c r="D79" s="49" t="s">
+      <c r="A79" s="43"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="40">
+      <c r="E79" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="49"/>
-      <c r="B80" s="49"/>
-      <c r="C80" s="49" t="s">
+      <c r="A80" s="43"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="49"/>
+      <c r="D80" s="43"/>
       <c r="E80" s="15"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="49"/>
-      <c r="B81" s="49"/>
-      <c r="C81" s="49"/>
-      <c r="D81" s="59" t="s">
+      <c r="A81" s="43"/>
+      <c r="B81" s="43"/>
+      <c r="C81" s="43"/>
+      <c r="D81" s="51" t="s">
         <v>14</v>
       </c>
       <c r="E81" s="7">
         <v>0</v>
       </c>
-      <c r="F81" s="60"/>
+      <c r="F81" s="52"/>
     </row>
     <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="49"/>
-      <c r="B82" s="49"/>
-      <c r="C82" s="49"/>
-      <c r="D82" s="59" t="s">
+      <c r="A82" s="43"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="51" t="s">
         <v>13</v>
       </c>
       <c r="E82" s="7">
@@ -4107,18 +4261,18 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="49"/>
-      <c r="B83" s="49"/>
-      <c r="C83" s="49" t="s">
+      <c r="A83" s="43"/>
+      <c r="B83" s="43"/>
+      <c r="C83" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D83" s="49"/>
+      <c r="D83" s="43"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="49"/>
-      <c r="B84" s="49"/>
-      <c r="C84" s="49"/>
-      <c r="D84" s="49" t="s">
+      <c r="A84" s="43"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="43" t="s">
         <v>14</v>
       </c>
       <c r="E84" s="18">
@@ -4126,10 +4280,10 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="49"/>
-      <c r="B85" s="49"/>
-      <c r="C85" s="49"/>
-      <c r="D85" s="49" t="s">
+      <c r="A85" s="43"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="43" t="s">
         <v>13</v>
       </c>
       <c r="E85" s="18">
@@ -4137,19 +4291,19 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="49"/>
-      <c r="B86" s="49"/>
-      <c r="C86" s="49" t="s">
+      <c r="A86" s="43"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D86" s="49"/>
+      <c r="D86" s="43"/>
       <c r="E86" s="14"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="49"/>
-      <c r="B87" s="49"/>
-      <c r="C87" s="49"/>
-      <c r="D87" s="49" t="s">
+      <c r="A87" s="43"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="43" t="s">
         <v>14</v>
       </c>
       <c r="E87" s="7">
@@ -4157,10 +4311,10 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="49"/>
-      <c r="B88" s="49"/>
-      <c r="C88" s="49"/>
-      <c r="D88" s="49" t="s">
+      <c r="A88" s="43"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="43" t="s">
         <v>13</v>
       </c>
       <c r="E88" s="7">
@@ -4168,19 +4322,19 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="49"/>
-      <c r="B89" s="49"/>
-      <c r="C89" s="49" t="s">
+      <c r="A89" s="43"/>
+      <c r="B89" s="43"/>
+      <c r="C89" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D89" s="49"/>
+      <c r="D89" s="43"/>
       <c r="E89" s="14"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="49"/>
-      <c r="B90" s="49"/>
-      <c r="C90" s="49"/>
-      <c r="D90" s="49" t="s">
+      <c r="A90" s="43"/>
+      <c r="B90" s="43"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="43" t="s">
         <v>15</v>
       </c>
       <c r="E90" s="7">
@@ -4188,10 +4342,10 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="49"/>
-      <c r="B91" s="49"/>
-      <c r="C91" s="49"/>
-      <c r="D91" s="49" t="s">
+      <c r="A91" s="43"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="43" t="s">
         <v>14</v>
       </c>
       <c r="E91" s="7">
@@ -4199,95 +4353,95 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="49"/>
-      <c r="B92" s="49"/>
-      <c r="C92" s="49"/>
-      <c r="D92" s="49" t="s">
+      <c r="A92" s="43"/>
+      <c r="B92" s="43"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="44">
+      <c r="E92" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="53" t="s">
+      <c r="A93" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D93" s="49"/>
+      <c r="D93" s="43"/>
       <c r="E93" s="17">
         <f>SUM(E41:E92)</f>
         <v>675526067.73000002</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="53" t="s">
+      <c r="A94" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B94" s="49"/>
-      <c r="C94" s="53"/>
-      <c r="D94" s="59"/>
+      <c r="B94" s="43"/>
+      <c r="C94" s="45"/>
+      <c r="D94" s="51"/>
       <c r="E94" s="14"/>
     </row>
     <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="49"/>
-      <c r="B95" s="53" t="s">
+      <c r="A95" s="43"/>
+      <c r="B95" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="49"/>
-      <c r="D95" s="49"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="43"/>
       <c r="E95" s="15"/>
-      <c r="H95" s="61"/>
-      <c r="I95" s="54"/>
+      <c r="H95" s="53"/>
+      <c r="I95" s="46"/>
     </row>
     <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="49"/>
-      <c r="B96" s="49"/>
-      <c r="C96" s="49"/>
-      <c r="D96" s="49" t="s">
+      <c r="A96" s="43"/>
+      <c r="B96" s="43"/>
+      <c r="C96" s="43"/>
+      <c r="D96" s="43" t="s">
         <v>2</v>
       </c>
       <c r="E96" s="7">
         <v>0</v>
       </c>
-      <c r="F96" s="61"/>
-      <c r="G96" s="49"/>
-      <c r="I96" s="54"/>
+      <c r="F96" s="53"/>
+      <c r="G96" s="43"/>
+      <c r="I96" s="46"/>
     </row>
     <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="49"/>
-      <c r="B97" s="53" t="s">
+      <c r="A97" s="43"/>
+      <c r="B97" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C97" s="49"/>
-      <c r="D97" s="49"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="43"/>
       <c r="E97" s="14"/>
-      <c r="F97" s="61"/>
-      <c r="G97" s="49"/>
-      <c r="H97" s="61"/>
-      <c r="I97" s="54"/>
+      <c r="F97" s="53"/>
+      <c r="G97" s="43"/>
+      <c r="H97" s="53"/>
+      <c r="I97" s="46"/>
     </row>
     <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B98" s="49"/>
-      <c r="C98" s="49"/>
-      <c r="D98" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E98" s="40">
+      <c r="B98" s="43"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="53" t="s">
+      <c r="B99" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C99" s="49"/>
-      <c r="D99" s="49"/>
+      <c r="C99" s="43"/>
+      <c r="D99" s="43"/>
       <c r="E99" s="9"/>
     </row>
     <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="49"/>
-      <c r="C100" s="49"/>
-      <c r="D100" s="49" t="s">
+      <c r="B100" s="43"/>
+      <c r="C100" s="43"/>
+      <c r="D100" s="43" t="s">
         <v>2</v>
       </c>
       <c r="E100" s="7">
@@ -4295,17 +4449,17 @@
       </c>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="53" t="s">
+      <c r="B101" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C101" s="49"/>
-      <c r="D101" s="49"/>
+      <c r="C101" s="43"/>
+      <c r="D101" s="43"/>
       <c r="E101" s="9"/>
     </row>
     <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B102" s="49"/>
-      <c r="C102" s="57"/>
-      <c r="D102" s="49" t="s">
+      <c r="B102" s="43"/>
+      <c r="C102" s="49"/>
+      <c r="D102" s="43" t="s">
         <v>2</v>
       </c>
       <c r="E102" s="10">
@@ -4313,34 +4467,34 @@
       </c>
     </row>
     <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B103" s="53" t="s">
+      <c r="B103" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C103" s="49"/>
-      <c r="D103" s="49"/>
+      <c r="C103" s="43"/>
+      <c r="D103" s="43"/>
       <c r="E103" s="9"/>
     </row>
     <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B104" s="49"/>
-      <c r="C104" s="49"/>
-      <c r="D104" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E104" s="43">
+      <c r="B104" s="43"/>
+      <c r="C104" s="43"/>
+      <c r="D104" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E104" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B105" s="53" t="s">
+      <c r="B105" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C105" s="49"/>
-      <c r="D105" s="49"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="43"/>
     </row>
     <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B106" s="49"/>
-      <c r="C106" s="49"/>
-      <c r="D106" s="49" t="s">
+      <c r="B106" s="43"/>
+      <c r="C106" s="43"/>
+      <c r="D106" s="43" t="s">
         <v>2</v>
       </c>
       <c r="E106" s="9">
@@ -4348,17 +4502,17 @@
       </c>
     </row>
     <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="53" t="s">
+      <c r="B107" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C107" s="49"/>
-      <c r="D107" s="49"/>
+      <c r="C107" s="43"/>
+      <c r="D107" s="43"/>
       <c r="E107" s="9"/>
     </row>
     <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="49"/>
-      <c r="C108" s="49"/>
-      <c r="D108" s="49" t="s">
+      <c r="B108" s="43"/>
+      <c r="C108" s="43"/>
+      <c r="D108" s="43" t="s">
         <v>2</v>
       </c>
       <c r="E108" s="7">
@@ -4366,27 +4520,27 @@
       </c>
     </row>
     <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="53"/>
-      <c r="B109" s="53" t="s">
+      <c r="A109" s="45"/>
+      <c r="B109" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C109" s="49"/>
-      <c r="D109" s="49"/>
+      <c r="C109" s="43"/>
+      <c r="D109" s="43"/>
       <c r="E109" s="9"/>
     </row>
     <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B110" s="49"/>
-      <c r="C110" s="49"/>
-      <c r="D110" s="49" t="s">
+      <c r="B110" s="43"/>
+      <c r="C110" s="43"/>
+      <c r="D110" s="43" t="s">
         <v>2</v>
       </c>
       <c r="E110" s="7">
         <v>6444727.8600000003</v>
       </c>
-      <c r="F110" s="62"/>
+      <c r="F110" s="54"/>
     </row>
     <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="53" t="s">
+      <c r="A111" s="45" t="s">
         <v>1</v>
       </c>
       <c r="E111" s="4">
@@ -4395,12 +4549,12 @@
       </c>
     </row>
     <row r="112" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B112" s="64"/>
-      <c r="C112" s="64"/>
-      <c r="D112" s="64"/>
+      <c r="A112" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" s="56"/>
+      <c r="C112" s="56"/>
+      <c r="D112" s="56"/>
       <c r="E112" s="1">
         <f>SUM(E93,E111)</f>
         <v>687272126.42000008</v>
@@ -4437,115 +4591,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
       <c r="H5" s="32"/>
       <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="51" t="s">
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="63" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="52"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="64"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="54"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="46"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49" t="s">
+      <c r="A9" s="43"/>
+      <c r="B9" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="54"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="46"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49" t="s">
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="49"/>
+      <c r="D10" s="43"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49" t="s">
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="7">
@@ -4553,10 +4707,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49" t="s">
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43" t="s">
         <v>55</v>
       </c>
       <c r="E12" s="7">
@@ -4564,10 +4718,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49" t="s">
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43" t="s">
         <v>54</v>
       </c>
       <c r="E13" s="7">
@@ -4575,31 +4729,31 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49" t="s">
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="49"/>
+      <c r="D14" s="43"/>
       <c r="E14" s="25">
         <f>SUM(E11:E13)</f>
         <v>125352191.49000001</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49" t="s">
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="49"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="28"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49" t="s">
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43" t="s">
         <v>51</v>
       </c>
       <c r="E16" s="7">
@@ -4607,10 +4761,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49" t="s">
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="7">
@@ -4618,84 +4772,84 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="49" t="s">
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="40">
+      <c r="E18" s="36">
         <v>16919117.75</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49" t="s">
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="49"/>
+      <c r="D19" s="43"/>
       <c r="E19" s="25">
         <f>SUM(E16:E18)</f>
         <v>44256425.599999994</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
-      <c r="B20" s="49" t="s">
+      <c r="A20" s="43"/>
+      <c r="B20" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
       <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49" t="s">
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="49"/>
+      <c r="D21" s="43"/>
       <c r="E21" s="7">
         <v>552277085</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49" t="s">
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="49"/>
+      <c r="D22" s="43"/>
       <c r="E22" s="7">
         <v>1265694.94</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49" t="s">
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="49"/>
+      <c r="D23" s="43"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49" t="s">
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49" t="s">
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43" t="s">
         <v>42</v>
       </c>
       <c r="E25" s="14">
@@ -4703,21 +4857,21 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49" t="s">
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="40">
+      <c r="E26" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49" t="s">
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43" t="s">
         <v>40</v>
       </c>
       <c r="E27" s="7">
@@ -4725,19 +4879,19 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49" t="s">
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="49"/>
+      <c r="D28" s="43"/>
       <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49" t="s">
+      <c r="A29" s="43"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43" t="s">
         <v>38</v>
       </c>
       <c r="E29" s="7">
@@ -4745,52 +4899,52 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49" t="s">
+      <c r="A30" s="43"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="41">
+      <c r="E30" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49" t="s">
+      <c r="A31" s="43"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="49"/>
-      <c r="E31" s="42">
+      <c r="D31" s="43"/>
+      <c r="E31" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49" t="s">
+      <c r="A32" s="43"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="49"/>
+      <c r="D32" s="43"/>
       <c r="E32" s="9"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49" t="s">
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="43">
+      <c r="E33" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49" t="s">
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43" t="s">
         <v>33</v>
       </c>
       <c r="E34" s="7">
@@ -4798,10 +4952,10 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49" t="s">
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43" t="s">
         <v>32</v>
       </c>
       <c r="E35" s="10">
@@ -4809,67 +4963,67 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
-      <c r="B36" s="49" t="s">
+      <c r="A36" s="43"/>
+      <c r="B36" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
       <c r="E36" s="7">
         <v>92702554.379999995</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
-      <c r="B37" s="53" t="s">
+      <c r="A37" s="43"/>
+      <c r="B37" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
       <c r="E37" s="25">
         <f>SUM(E14,E19,E21:E36)</f>
         <v>816018567.41000009</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
       <c r="E38" s="24"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="53"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
       <c r="E39" s="14"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="53" t="s">
+      <c r="A40" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
       <c r="E40" s="14"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
-      <c r="B41" s="53" t="s">
+      <c r="A41" s="43"/>
+      <c r="B41" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
       <c r="E41" s="9"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49" t="s">
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E42" s="7">
@@ -4877,10 +5031,10 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49" t="s">
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43" t="s">
         <v>25</v>
       </c>
       <c r="E43" s="7">
@@ -4888,10 +5042,10 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="49"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49" t="s">
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43" t="s">
         <v>2</v>
       </c>
       <c r="E44" s="7">
@@ -4899,19 +5053,19 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
-      <c r="B45" s="53" t="s">
+      <c r="A45" s="43"/>
+      <c r="B45" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
       <c r="E45" s="9"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="49"/>
-      <c r="B46" s="49"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="49" t="s">
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E46" s="7">
@@ -4919,10 +5073,10 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
-      <c r="B47" s="49"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49" t="s">
+      <c r="A47" s="43"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43" t="s">
         <v>25</v>
       </c>
       <c r="E47" s="7">
@@ -4930,10 +5084,10 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="49"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49" t="s">
+      <c r="A48" s="43"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43" t="s">
         <v>2</v>
       </c>
       <c r="E48" s="7">
@@ -4941,19 +5095,19 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="49"/>
-      <c r="B49" s="53" t="s">
+      <c r="A49" s="43"/>
+      <c r="B49" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
       <c r="E49" s="10"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="58"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="49" t="s">
+      <c r="A50" s="50"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E50" s="7">
@@ -4961,10 +5115,10 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="49"/>
-      <c r="B51" s="49"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49" t="s">
+      <c r="A51" s="43"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43" t="s">
         <v>25</v>
       </c>
       <c r="E51" s="7">
@@ -4972,10 +5126,10 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="49"/>
-      <c r="B52" s="49"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49" t="s">
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43" t="s">
         <v>2</v>
       </c>
       <c r="E52" s="7">
@@ -4983,19 +5137,19 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="49"/>
-      <c r="B53" s="53" t="s">
+      <c r="A53" s="43"/>
+      <c r="B53" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="49"/>
-      <c r="D53" s="49"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
       <c r="E53" s="10"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="49"/>
-      <c r="B54" s="49"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49" t="s">
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E54" s="7">
@@ -5003,10 +5157,10 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="49"/>
-      <c r="B55" s="49"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49" t="s">
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43" t="s">
         <v>25</v>
       </c>
       <c r="E55" s="7">
@@ -5014,41 +5168,41 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="49"/>
-      <c r="B56" s="49"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E56" s="44">
+      <c r="A56" s="43"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="49"/>
-      <c r="B57" s="53" t="s">
+      <c r="A57" s="43"/>
+      <c r="B57" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
       <c r="E57" s="22"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="49"/>
-      <c r="B58" s="49"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="49" t="s">
+      <c r="A58" s="43"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="43">
+      <c r="E58" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="49"/>
-      <c r="B59" s="49"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49" t="s">
+      <c r="A59" s="43"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43" t="s">
         <v>25</v>
       </c>
       <c r="E59" s="7">
@@ -5056,30 +5210,30 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="49"/>
-      <c r="B60" s="49"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E60" s="43">
+      <c r="A60" s="43"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="49"/>
-      <c r="B61" s="53" t="s">
+      <c r="A61" s="43"/>
+      <c r="B61" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="49"/>
-      <c r="D61" s="49"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
       <c r="E61" s="22"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="49"/>
-      <c r="B62" s="49"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="49" t="s">
+      <c r="A62" s="43"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E62" s="7">
@@ -5087,10 +5241,10 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="49"/>
-      <c r="B63" s="53"/>
-      <c r="C63" s="49"/>
-      <c r="D63" s="49" t="s">
+      <c r="A63" s="43"/>
+      <c r="B63" s="45"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="43" t="s">
         <v>25</v>
       </c>
       <c r="E63" s="7">
@@ -5098,10 +5252,10 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="49"/>
-      <c r="B64" s="49"/>
-      <c r="C64" s="49"/>
-      <c r="D64" s="49" t="s">
+      <c r="A64" s="43"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="43" t="s">
         <v>2</v>
       </c>
       <c r="E64" s="7">
@@ -5109,19 +5263,19 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="49"/>
-      <c r="B65" s="53" t="s">
+      <c r="A65" s="43"/>
+      <c r="B65" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="49"/>
-      <c r="D65" s="49"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="43"/>
       <c r="E65" s="10"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="49"/>
-      <c r="B66" s="49"/>
-      <c r="C66" s="49"/>
-      <c r="D66" s="49" t="s">
+      <c r="A66" s="43"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E66" s="7">
@@ -5129,10 +5283,10 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="49"/>
-      <c r="B67" s="49"/>
-      <c r="C67" s="49"/>
-      <c r="D67" s="49" t="s">
+      <c r="A67" s="43"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43" t="s">
         <v>25</v>
       </c>
       <c r="E67" s="7">
@@ -5140,10 +5294,10 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="49"/>
-      <c r="B68" s="49"/>
-      <c r="C68" s="49"/>
-      <c r="D68" s="49" t="s">
+      <c r="A68" s="43"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="43" t="s">
         <v>2</v>
       </c>
       <c r="E68" s="7">
@@ -5151,19 +5305,19 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="49"/>
-      <c r="B69" s="53" t="s">
+      <c r="A69" s="43"/>
+      <c r="B69" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="49"/>
-      <c r="D69" s="49"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="43"/>
       <c r="E69" s="9"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="49"/>
-      <c r="B70" s="49"/>
-      <c r="C70" s="49"/>
-      <c r="D70" s="49" t="s">
+      <c r="A70" s="43"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E70" s="14">
@@ -5171,10 +5325,10 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="49"/>
-      <c r="B71" s="49"/>
-      <c r="C71" s="49"/>
-      <c r="D71" s="49" t="s">
+      <c r="A71" s="43"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43" t="s">
         <v>25</v>
       </c>
       <c r="E71" s="14">
@@ -5182,10 +5336,10 @@
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="49"/>
-      <c r="B72" s="49"/>
-      <c r="C72" s="49"/>
-      <c r="D72" s="49" t="s">
+      <c r="A72" s="43"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="43" t="s">
         <v>2</v>
       </c>
       <c r="E72" s="21">
@@ -5193,28 +5347,28 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="49"/>
-      <c r="B73" s="53" t="s">
+      <c r="A73" s="43"/>
+      <c r="B73" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C73" s="49"/>
-      <c r="D73" s="49"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
       <c r="E73" s="9"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="49"/>
-      <c r="B74" s="49"/>
-      <c r="C74" s="49" t="s">
+      <c r="A74" s="43"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="49"/>
+      <c r="D74" s="43"/>
       <c r="E74" s="14"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="49"/>
-      <c r="B75" s="49"/>
-      <c r="C75" s="49"/>
-      <c r="D75" s="49" t="s">
+      <c r="A75" s="43"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43" t="s">
         <v>22</v>
       </c>
       <c r="E75" s="7">
@@ -5222,10 +5376,10 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="49"/>
-      <c r="B76" s="49"/>
-      <c r="C76" s="49"/>
-      <c r="D76" s="49" t="s">
+      <c r="A76" s="43"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43" t="s">
         <v>21</v>
       </c>
       <c r="E76" s="7">
@@ -5233,19 +5387,19 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="49"/>
-      <c r="B77" s="49"/>
-      <c r="C77" s="59" t="s">
+      <c r="A77" s="43"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="49"/>
+      <c r="D77" s="43"/>
       <c r="E77" s="14"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="49"/>
-      <c r="B78" s="49"/>
-      <c r="C78" s="49"/>
-      <c r="D78" s="49" t="s">
+      <c r="A78" s="43"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="43" t="s">
         <v>14</v>
       </c>
       <c r="E78" s="7">
@@ -5253,10 +5407,10 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="49"/>
-      <c r="B79" s="49"/>
-      <c r="C79" s="49"/>
-      <c r="D79" s="49" t="s">
+      <c r="A79" s="43"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="43" t="s">
         <v>13</v>
       </c>
       <c r="E79" s="7">
@@ -5264,31 +5418,31 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="49"/>
-      <c r="B80" s="49"/>
-      <c r="C80" s="49" t="s">
+      <c r="A80" s="43"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="49"/>
+      <c r="D80" s="43"/>
       <c r="E80" s="15"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="49"/>
-      <c r="B81" s="49"/>
-      <c r="C81" s="49"/>
-      <c r="D81" s="59" t="s">
+      <c r="A81" s="43"/>
+      <c r="B81" s="43"/>
+      <c r="C81" s="43"/>
+      <c r="D81" s="51" t="s">
         <v>14</v>
       </c>
       <c r="E81" s="7">
         <v>0</v>
       </c>
-      <c r="F81" s="60"/>
+      <c r="F81" s="52"/>
     </row>
     <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="49"/>
-      <c r="B82" s="49"/>
-      <c r="C82" s="49"/>
-      <c r="D82" s="59" t="s">
+      <c r="A82" s="43"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="51" t="s">
         <v>13</v>
       </c>
       <c r="E82" s="7">
@@ -5296,18 +5450,18 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="49"/>
-      <c r="B83" s="49"/>
-      <c r="C83" s="49" t="s">
+      <c r="A83" s="43"/>
+      <c r="B83" s="43"/>
+      <c r="C83" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D83" s="49"/>
+      <c r="D83" s="43"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="49"/>
-      <c r="B84" s="49"/>
-      <c r="C84" s="49"/>
-      <c r="D84" s="49" t="s">
+      <c r="A84" s="43"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="43" t="s">
         <v>14</v>
       </c>
       <c r="E84" s="18">
@@ -5315,10 +5469,10 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="49"/>
-      <c r="B85" s="49"/>
-      <c r="C85" s="49"/>
-      <c r="D85" s="49" t="s">
+      <c r="A85" s="43"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="43" t="s">
         <v>13</v>
       </c>
       <c r="E85" s="18">
@@ -5326,19 +5480,19 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="49"/>
-      <c r="B86" s="49"/>
-      <c r="C86" s="49" t="s">
+      <c r="A86" s="43"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D86" s="49"/>
+      <c r="D86" s="43"/>
       <c r="E86" s="14"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="49"/>
-      <c r="B87" s="49"/>
-      <c r="C87" s="49"/>
-      <c r="D87" s="49" t="s">
+      <c r="A87" s="43"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="43" t="s">
         <v>14</v>
       </c>
       <c r="E87" s="7">
@@ -5346,10 +5500,10 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="49"/>
-      <c r="B88" s="49"/>
-      <c r="C88" s="49"/>
-      <c r="D88" s="49" t="s">
+      <c r="A88" s="43"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="43" t="s">
         <v>13</v>
       </c>
       <c r="E88" s="7">
@@ -5357,19 +5511,19 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="49"/>
-      <c r="B89" s="49"/>
-      <c r="C89" s="49" t="s">
+      <c r="A89" s="43"/>
+      <c r="B89" s="43"/>
+      <c r="C89" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D89" s="49"/>
+      <c r="D89" s="43"/>
       <c r="E89" s="14"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="49"/>
-      <c r="B90" s="49"/>
-      <c r="C90" s="49"/>
-      <c r="D90" s="49" t="s">
+      <c r="A90" s="43"/>
+      <c r="B90" s="43"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="43" t="s">
         <v>15</v>
       </c>
       <c r="E90" s="7">
@@ -5377,10 +5531,10 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="49"/>
-      <c r="B91" s="49"/>
-      <c r="C91" s="49"/>
-      <c r="D91" s="49" t="s">
+      <c r="A91" s="43"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="43" t="s">
         <v>14</v>
       </c>
       <c r="E91" s="7">
@@ -5388,95 +5542,95 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="49"/>
-      <c r="B92" s="49"/>
-      <c r="C92" s="49"/>
-      <c r="D92" s="49" t="s">
+      <c r="A92" s="43"/>
+      <c r="B92" s="43"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="44">
+      <c r="E92" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="53" t="s">
+      <c r="A93" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D93" s="49"/>
+      <c r="D93" s="43"/>
       <c r="E93" s="17">
         <f>SUM(E41:E92)</f>
         <v>556897462.69000018</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="53" t="s">
+      <c r="A94" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B94" s="49"/>
-      <c r="C94" s="53"/>
-      <c r="D94" s="59"/>
+      <c r="B94" s="43"/>
+      <c r="C94" s="45"/>
+      <c r="D94" s="51"/>
       <c r="E94" s="14"/>
     </row>
     <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="49"/>
-      <c r="B95" s="53" t="s">
+      <c r="A95" s="43"/>
+      <c r="B95" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="49"/>
-      <c r="D95" s="49"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="43"/>
       <c r="E95" s="15"/>
-      <c r="H95" s="61"/>
-      <c r="I95" s="54"/>
+      <c r="H95" s="53"/>
+      <c r="I95" s="46"/>
     </row>
     <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="49"/>
-      <c r="B96" s="49"/>
-      <c r="C96" s="49"/>
-      <c r="D96" s="49" t="s">
+      <c r="A96" s="43"/>
+      <c r="B96" s="43"/>
+      <c r="C96" s="43"/>
+      <c r="D96" s="43" t="s">
         <v>2</v>
       </c>
       <c r="E96" s="7">
         <v>0</v>
       </c>
-      <c r="F96" s="61"/>
-      <c r="G96" s="49"/>
-      <c r="I96" s="54"/>
+      <c r="F96" s="53"/>
+      <c r="G96" s="43"/>
+      <c r="I96" s="46"/>
     </row>
     <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="49"/>
-      <c r="B97" s="53" t="s">
+      <c r="A97" s="43"/>
+      <c r="B97" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C97" s="49"/>
-      <c r="D97" s="49"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="43"/>
       <c r="E97" s="14"/>
-      <c r="F97" s="61"/>
-      <c r="G97" s="49"/>
-      <c r="H97" s="61"/>
-      <c r="I97" s="54"/>
+      <c r="F97" s="53"/>
+      <c r="G97" s="43"/>
+      <c r="H97" s="53"/>
+      <c r="I97" s="46"/>
     </row>
     <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B98" s="49"/>
-      <c r="C98" s="49"/>
-      <c r="D98" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E98" s="40">
+      <c r="B98" s="43"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="53" t="s">
+      <c r="B99" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C99" s="49"/>
-      <c r="D99" s="49"/>
+      <c r="C99" s="43"/>
+      <c r="D99" s="43"/>
       <c r="E99" s="9"/>
     </row>
     <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="49"/>
-      <c r="C100" s="49"/>
-      <c r="D100" s="49" t="s">
+      <c r="B100" s="43"/>
+      <c r="C100" s="43"/>
+      <c r="D100" s="43" t="s">
         <v>2</v>
       </c>
       <c r="E100" s="7">
@@ -5484,17 +5638,17 @@
       </c>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="53" t="s">
+      <c r="B101" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C101" s="49"/>
-      <c r="D101" s="49"/>
+      <c r="C101" s="43"/>
+      <c r="D101" s="43"/>
       <c r="E101" s="9"/>
     </row>
     <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B102" s="49"/>
-      <c r="C102" s="57"/>
-      <c r="D102" s="49" t="s">
+      <c r="B102" s="43"/>
+      <c r="C102" s="49"/>
+      <c r="D102" s="43" t="s">
         <v>2</v>
       </c>
       <c r="E102" s="10">
@@ -5502,34 +5656,34 @@
       </c>
     </row>
     <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B103" s="53" t="s">
+      <c r="B103" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C103" s="49"/>
-      <c r="D103" s="49"/>
+      <c r="C103" s="43"/>
+      <c r="D103" s="43"/>
       <c r="E103" s="9"/>
     </row>
     <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B104" s="49"/>
-      <c r="C104" s="49"/>
-      <c r="D104" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E104" s="43">
+      <c r="B104" s="43"/>
+      <c r="C104" s="43"/>
+      <c r="D104" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E104" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B105" s="53" t="s">
+      <c r="B105" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C105" s="49"/>
-      <c r="D105" s="49"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="43"/>
     </row>
     <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B106" s="49"/>
-      <c r="C106" s="49"/>
-      <c r="D106" s="49" t="s">
+      <c r="B106" s="43"/>
+      <c r="C106" s="43"/>
+      <c r="D106" s="43" t="s">
         <v>2</v>
       </c>
       <c r="E106" s="7">
@@ -5537,17 +5691,17 @@
       </c>
     </row>
     <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="53" t="s">
+      <c r="B107" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C107" s="49"/>
-      <c r="D107" s="49"/>
+      <c r="C107" s="43"/>
+      <c r="D107" s="43"/>
       <c r="E107" s="9"/>
     </row>
     <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="49"/>
-      <c r="C108" s="49"/>
-      <c r="D108" s="49" t="s">
+      <c r="B108" s="43"/>
+      <c r="C108" s="43"/>
+      <c r="D108" s="43" t="s">
         <v>2</v>
       </c>
       <c r="E108" s="7">
@@ -5555,27 +5709,27 @@
       </c>
     </row>
     <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="53"/>
-      <c r="B109" s="53" t="s">
+      <c r="A109" s="45"/>
+      <c r="B109" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C109" s="49"/>
-      <c r="D109" s="49"/>
+      <c r="C109" s="43"/>
+      <c r="D109" s="43"/>
       <c r="E109" s="9"/>
     </row>
     <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B110" s="49"/>
-      <c r="C110" s="49"/>
-      <c r="D110" s="49" t="s">
+      <c r="B110" s="43"/>
+      <c r="C110" s="43"/>
+      <c r="D110" s="43" t="s">
         <v>2</v>
       </c>
       <c r="E110" s="7">
         <v>0</v>
       </c>
-      <c r="F110" s="62"/>
+      <c r="F110" s="54"/>
     </row>
     <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="53" t="s">
+      <c r="A111" s="45" t="s">
         <v>1</v>
       </c>
       <c r="E111" s="4">
@@ -5584,12 +5738,12 @@
       </c>
     </row>
     <row r="112" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B112" s="64"/>
-      <c r="C112" s="64"/>
-      <c r="D112" s="64"/>
+      <c r="A112" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" s="56"/>
+      <c r="C112" s="56"/>
+      <c r="D112" s="56"/>
       <c r="E112" s="1">
         <f>SUM(E93,E111)</f>
         <v>626422724.98000014</v>
@@ -5612,7 +5766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5CB7D4-E0D5-4770-AD44-2C519B84595C}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -5626,115 +5780,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
       <c r="H5" s="32"/>
       <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="51" t="s">
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="63" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="52"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="64"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="54"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="46"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49" t="s">
+      <c r="A9" s="43"/>
+      <c r="B9" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="54"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="46"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49" t="s">
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="49"/>
+      <c r="D10" s="43"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49" t="s">
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="7">
@@ -5742,10 +5896,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49" t="s">
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43" t="s">
         <v>55</v>
       </c>
       <c r="E12" s="7">
@@ -5753,10 +5907,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49" t="s">
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43" t="s">
         <v>54</v>
       </c>
       <c r="E13" s="7">
@@ -5764,31 +5918,31 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49" t="s">
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="49"/>
+      <c r="D14" s="43"/>
       <c r="E14" s="25">
         <f>SUM(E11:E13)</f>
         <v>39240605.049999997</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49" t="s">
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="49"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="28"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49" t="s">
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43" t="s">
         <v>51</v>
       </c>
       <c r="E16" s="7">
@@ -5796,10 +5950,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49" t="s">
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="7">
@@ -5807,84 +5961,84 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="49" t="s">
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="40">
+      <c r="E18" s="36">
         <v>17031993.309999999</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49" t="s">
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="49"/>
+      <c r="D19" s="43"/>
       <c r="E19" s="25">
         <f>SUM(E16:E18)</f>
         <v>56496148.450000003</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
-      <c r="B20" s="49" t="s">
+      <c r="A20" s="43"/>
+      <c r="B20" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
       <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49" t="s">
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="49"/>
+      <c r="D21" s="43"/>
       <c r="E21" s="7">
         <v>383437596</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49" t="s">
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="49"/>
+      <c r="D22" s="43"/>
       <c r="E22" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49" t="s">
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="49"/>
+      <c r="D23" s="43"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49" t="s">
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49" t="s">
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43" t="s">
         <v>42</v>
       </c>
       <c r="E25" s="14">
@@ -5892,41 +6046,41 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49" t="s">
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="40">
+      <c r="E26" s="36">
         <v>5938</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49" t="s">
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="41">
+      <c r="E27" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49" t="s">
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="49"/>
+      <c r="D28" s="43"/>
       <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49" t="s">
+      <c r="A29" s="43"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43" t="s">
         <v>38</v>
       </c>
       <c r="E29" s="7">
@@ -5934,52 +6088,52 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49" t="s">
+      <c r="A30" s="43"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="41">
+      <c r="E30" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49" t="s">
+      <c r="A31" s="43"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="49"/>
-      <c r="E31" s="42">
+      <c r="D31" s="43"/>
+      <c r="E31" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49" t="s">
+      <c r="A32" s="43"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="49"/>
+      <c r="D32" s="43"/>
       <c r="E32" s="9"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49" t="s">
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="43">
+      <c r="E33" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49" t="s">
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43" t="s">
         <v>33</v>
       </c>
       <c r="E34" s="7">
@@ -5987,10 +6141,10 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49" t="s">
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43" t="s">
         <v>32</v>
       </c>
       <c r="E35" s="10">
@@ -5998,67 +6152,67 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
-      <c r="B36" s="49" t="s">
+      <c r="A36" s="43"/>
+      <c r="B36" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="42">
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
-      <c r="B37" s="53" t="s">
+      <c r="A37" s="43"/>
+      <c r="B37" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
       <c r="E37" s="25">
         <f>SUM(E14,E19,E21:E36)</f>
         <v>479180287.5</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
       <c r="E38" s="24"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="53"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
       <c r="E39" s="14"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="53" t="s">
+      <c r="A40" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
       <c r="E40" s="14"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
-      <c r="B41" s="53" t="s">
+      <c r="A41" s="43"/>
+      <c r="B41" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
       <c r="E41" s="9"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49" t="s">
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E42" s="7">
@@ -6066,10 +6220,10 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49" t="s">
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43" t="s">
         <v>25</v>
       </c>
       <c r="E43" s="7">
@@ -6077,10 +6231,10 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="49"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49" t="s">
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43" t="s">
         <v>2</v>
       </c>
       <c r="E44" s="7">
@@ -6088,19 +6242,19 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
-      <c r="B45" s="53" t="s">
+      <c r="A45" s="43"/>
+      <c r="B45" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
       <c r="E45" s="9"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="49"/>
-      <c r="B46" s="49"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="49" t="s">
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E46" s="7">
@@ -6108,10 +6262,10 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
-      <c r="B47" s="49"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49" t="s">
+      <c r="A47" s="43"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43" t="s">
         <v>25</v>
       </c>
       <c r="E47" s="7">
@@ -6119,10 +6273,10 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="49"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49" t="s">
+      <c r="A48" s="43"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43" t="s">
         <v>2</v>
       </c>
       <c r="E48" s="7">
@@ -6130,19 +6284,19 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="49"/>
-      <c r="B49" s="53" t="s">
+      <c r="A49" s="43"/>
+      <c r="B49" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
       <c r="E49" s="10"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="58"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="49" t="s">
+      <c r="A50" s="50"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E50" s="7">
@@ -6150,10 +6304,10 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="49"/>
-      <c r="B51" s="49"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49" t="s">
+      <c r="A51" s="43"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43" t="s">
         <v>25</v>
       </c>
       <c r="E51" s="7">
@@ -6161,10 +6315,10 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="49"/>
-      <c r="B52" s="49"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49" t="s">
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43" t="s">
         <v>2</v>
       </c>
       <c r="E52" s="7">
@@ -6172,19 +6326,19 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="49"/>
-      <c r="B53" s="53" t="s">
+      <c r="A53" s="43"/>
+      <c r="B53" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="49"/>
-      <c r="D53" s="49"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
       <c r="E53" s="10"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="49"/>
-      <c r="B54" s="49"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49" t="s">
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E54" s="7">
@@ -6192,83 +6346,83 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="49"/>
-      <c r="B55" s="49"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49" t="s">
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="40">
+      <c r="E55" s="36">
         <v>1596000</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="49"/>
-      <c r="B56" s="49"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E56" s="44">
+      <c r="A56" s="43"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="40">
         <v>118000</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="49"/>
-      <c r="B57" s="53" t="s">
+      <c r="A57" s="43"/>
+      <c r="B57" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
       <c r="E57" s="22"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="49"/>
-      <c r="B58" s="49"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="49" t="s">
+      <c r="A58" s="43"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="43">
+      <c r="E58" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="49"/>
-      <c r="B59" s="49"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49" t="s">
+      <c r="A59" s="43"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="E59" s="45">
+      <c r="E59" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="49"/>
-      <c r="B60" s="49"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E60" s="43">
+      <c r="A60" s="43"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="49"/>
-      <c r="B61" s="53" t="s">
+      <c r="A61" s="43"/>
+      <c r="B61" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="49"/>
-      <c r="D61" s="49"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
       <c r="E61" s="22"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="49"/>
-      <c r="B62" s="49"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="49" t="s">
+      <c r="A62" s="43"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E62" s="7">
@@ -6276,10 +6430,10 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="49"/>
-      <c r="B63" s="53"/>
-      <c r="C63" s="49"/>
-      <c r="D63" s="49" t="s">
+      <c r="A63" s="43"/>
+      <c r="B63" s="45"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="43" t="s">
         <v>25</v>
       </c>
       <c r="E63" s="7">
@@ -6287,10 +6441,10 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="49"/>
-      <c r="B64" s="49"/>
-      <c r="C64" s="49"/>
-      <c r="D64" s="49" t="s">
+      <c r="A64" s="43"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="43" t="s">
         <v>2</v>
       </c>
       <c r="E64" s="7">
@@ -6298,19 +6452,19 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="49"/>
-      <c r="B65" s="53" t="s">
+      <c r="A65" s="43"/>
+      <c r="B65" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="49"/>
-      <c r="D65" s="49"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="43"/>
       <c r="E65" s="10"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="49"/>
-      <c r="B66" s="49"/>
-      <c r="C66" s="49"/>
-      <c r="D66" s="49" t="s">
+      <c r="A66" s="43"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E66" s="7">
@@ -6318,10 +6472,10 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="49"/>
-      <c r="B67" s="49"/>
-      <c r="C67" s="49"/>
-      <c r="D67" s="49" t="s">
+      <c r="A67" s="43"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43" t="s">
         <v>25</v>
       </c>
       <c r="E67" s="7">
@@ -6329,10 +6483,10 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="49"/>
-      <c r="B68" s="49"/>
-      <c r="C68" s="49"/>
-      <c r="D68" s="49" t="s">
+      <c r="A68" s="43"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="43" t="s">
         <v>2</v>
       </c>
       <c r="E68" s="7">
@@ -6340,19 +6494,19 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="49"/>
-      <c r="B69" s="53" t="s">
+      <c r="A69" s="43"/>
+      <c r="B69" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="49"/>
-      <c r="D69" s="49"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="43"/>
       <c r="E69" s="9"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="49"/>
-      <c r="B70" s="49"/>
-      <c r="C70" s="49"/>
-      <c r="D70" s="49" t="s">
+      <c r="A70" s="43"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="43" t="s">
         <v>26</v>
       </c>
       <c r="E70" s="14">
@@ -6360,10 +6514,10 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="49"/>
-      <c r="B71" s="49"/>
-      <c r="C71" s="49"/>
-      <c r="D71" s="49" t="s">
+      <c r="A71" s="43"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43" t="s">
         <v>25</v>
       </c>
       <c r="E71" s="14">
@@ -6371,10 +6525,10 @@
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="49"/>
-      <c r="B72" s="49"/>
-      <c r="C72" s="49"/>
-      <c r="D72" s="49" t="s">
+      <c r="A72" s="43"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="43" t="s">
         <v>2</v>
       </c>
       <c r="E72" s="21">
@@ -6382,59 +6536,59 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="49"/>
-      <c r="B73" s="53" t="s">
+      <c r="A73" s="43"/>
+      <c r="B73" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C73" s="49"/>
-      <c r="D73" s="49"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
       <c r="E73" s="9"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="49"/>
-      <c r="B74" s="49"/>
-      <c r="C74" s="49" t="s">
+      <c r="A74" s="43"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="49"/>
+      <c r="D74" s="43"/>
       <c r="E74" s="14"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="49"/>
-      <c r="B75" s="49"/>
-      <c r="C75" s="49"/>
-      <c r="D75" s="49" t="s">
+      <c r="A75" s="43"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="40">
+      <c r="E75" s="36">
         <v>1583052.06</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="49"/>
-      <c r="B76" s="49"/>
-      <c r="C76" s="49"/>
-      <c r="D76" s="49" t="s">
+      <c r="A76" s="43"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="E76" s="46">
+      <c r="E76" s="42">
         <v>6370198.9400000004</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="49"/>
-      <c r="B77" s="49"/>
-      <c r="C77" s="59" t="s">
+      <c r="A77" s="43"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="49"/>
+      <c r="D77" s="43"/>
       <c r="E77" s="14"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="49"/>
-      <c r="B78" s="49"/>
-      <c r="C78" s="49"/>
-      <c r="D78" s="49" t="s">
+      <c r="A78" s="43"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="43" t="s">
         <v>14</v>
       </c>
       <c r="E78" s="7">
@@ -6442,42 +6596,42 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="49"/>
-      <c r="B79" s="49"/>
-      <c r="C79" s="49"/>
-      <c r="D79" s="49" t="s">
+      <c r="A79" s="43"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="40">
+      <c r="E79" s="36">
         <v>6736215.3300000001</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="49"/>
-      <c r="B80" s="49"/>
-      <c r="C80" s="49" t="s">
+      <c r="A80" s="43"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="49"/>
+      <c r="D80" s="43"/>
       <c r="E80" s="15"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="49"/>
-      <c r="B81" s="49"/>
-      <c r="C81" s="49"/>
-      <c r="D81" s="59" t="s">
+      <c r="A81" s="43"/>
+      <c r="B81" s="43"/>
+      <c r="C81" s="43"/>
+      <c r="D81" s="51" t="s">
         <v>14</v>
       </c>
       <c r="E81" s="7">
         <v>0</v>
       </c>
-      <c r="F81" s="60"/>
+      <c r="F81" s="52"/>
     </row>
     <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="49"/>
-      <c r="B82" s="49"/>
-      <c r="C82" s="49"/>
-      <c r="D82" s="59" t="s">
+      <c r="A82" s="43"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="51" t="s">
         <v>13</v>
       </c>
       <c r="E82" s="7">
@@ -6485,18 +6639,18 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="49"/>
-      <c r="B83" s="49"/>
-      <c r="C83" s="49" t="s">
+      <c r="A83" s="43"/>
+      <c r="B83" s="43"/>
+      <c r="C83" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D83" s="49"/>
+      <c r="D83" s="43"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="49"/>
-      <c r="B84" s="49"/>
-      <c r="C84" s="49"/>
-      <c r="D84" s="49" t="s">
+      <c r="A84" s="43"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="43" t="s">
         <v>14</v>
       </c>
       <c r="E84" s="18">
@@ -6504,10 +6658,10 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="49"/>
-      <c r="B85" s="49"/>
-      <c r="C85" s="49"/>
-      <c r="D85" s="49" t="s">
+      <c r="A85" s="43"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="43" t="s">
         <v>13</v>
       </c>
       <c r="E85" s="18">
@@ -6515,19 +6669,19 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="49"/>
-      <c r="B86" s="49"/>
-      <c r="C86" s="49" t="s">
+      <c r="A86" s="43"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D86" s="49"/>
+      <c r="D86" s="43"/>
       <c r="E86" s="14"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="49"/>
-      <c r="B87" s="49"/>
-      <c r="C87" s="49"/>
-      <c r="D87" s="49" t="s">
+      <c r="A87" s="43"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="43" t="s">
         <v>14</v>
       </c>
       <c r="E87" s="7">
@@ -6535,10 +6689,10 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="49"/>
-      <c r="B88" s="49"/>
-      <c r="C88" s="49"/>
-      <c r="D88" s="49" t="s">
+      <c r="A88" s="43"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="43" t="s">
         <v>13</v>
       </c>
       <c r="E88" s="7">
@@ -6546,19 +6700,19 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="49"/>
-      <c r="B89" s="49"/>
-      <c r="C89" s="49" t="s">
+      <c r="A89" s="43"/>
+      <c r="B89" s="43"/>
+      <c r="C89" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D89" s="49"/>
+      <c r="D89" s="43"/>
       <c r="E89" s="14"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="49"/>
-      <c r="B90" s="49"/>
-      <c r="C90" s="49"/>
-      <c r="D90" s="49" t="s">
+      <c r="A90" s="43"/>
+      <c r="B90" s="43"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="43" t="s">
         <v>15</v>
       </c>
       <c r="E90" s="7">
@@ -6566,10 +6720,10 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="49"/>
-      <c r="B91" s="49"/>
-      <c r="C91" s="49"/>
-      <c r="D91" s="49" t="s">
+      <c r="A91" s="43"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="43" t="s">
         <v>14</v>
       </c>
       <c r="E91" s="7">
@@ -6577,95 +6731,95 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="49"/>
-      <c r="B92" s="49"/>
-      <c r="C92" s="49"/>
-      <c r="D92" s="49" t="s">
+      <c r="A92" s="43"/>
+      <c r="B92" s="43"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="44">
+      <c r="E92" s="40">
         <v>1848260.28</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="53" t="s">
+      <c r="A93" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D93" s="49"/>
+      <c r="D93" s="43"/>
       <c r="E93" s="17">
         <f>SUM(E41:E92)</f>
         <v>511885758.68999988</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="53" t="s">
+      <c r="A94" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B94" s="49"/>
-      <c r="C94" s="53"/>
-      <c r="D94" s="59"/>
+      <c r="B94" s="43"/>
+      <c r="C94" s="45"/>
+      <c r="D94" s="51"/>
       <c r="E94" s="14"/>
     </row>
     <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="49"/>
-      <c r="B95" s="53" t="s">
+      <c r="A95" s="43"/>
+      <c r="B95" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="49"/>
-      <c r="D95" s="49"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="43"/>
       <c r="E95" s="15"/>
-      <c r="H95" s="61"/>
-      <c r="I95" s="54"/>
+      <c r="H95" s="53"/>
+      <c r="I95" s="46"/>
     </row>
     <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="49"/>
-      <c r="B96" s="49"/>
-      <c r="C96" s="49"/>
-      <c r="D96" s="49" t="s">
+      <c r="A96" s="43"/>
+      <c r="B96" s="43"/>
+      <c r="C96" s="43"/>
+      <c r="D96" s="43" t="s">
         <v>2</v>
       </c>
       <c r="E96" s="7">
         <v>1199860.83</v>
       </c>
-      <c r="F96" s="61"/>
-      <c r="G96" s="49"/>
-      <c r="I96" s="54"/>
+      <c r="F96" s="53"/>
+      <c r="G96" s="43"/>
+      <c r="I96" s="46"/>
     </row>
     <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="49"/>
-      <c r="B97" s="53" t="s">
+      <c r="A97" s="43"/>
+      <c r="B97" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C97" s="49"/>
-      <c r="D97" s="49"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="43"/>
       <c r="E97" s="14"/>
-      <c r="F97" s="61"/>
-      <c r="G97" s="49"/>
-      <c r="H97" s="61"/>
-      <c r="I97" s="54"/>
+      <c r="F97" s="53"/>
+      <c r="G97" s="43"/>
+      <c r="H97" s="53"/>
+      <c r="I97" s="46"/>
     </row>
     <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B98" s="49"/>
-      <c r="C98" s="49"/>
-      <c r="D98" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E98" s="40">
+      <c r="B98" s="43"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" s="36">
         <v>4176846.79</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="53" t="s">
+      <c r="B99" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C99" s="49"/>
-      <c r="D99" s="49"/>
+      <c r="C99" s="43"/>
+      <c r="D99" s="43"/>
       <c r="E99" s="9"/>
     </row>
     <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="49"/>
-      <c r="C100" s="49"/>
-      <c r="D100" s="49" t="s">
+      <c r="B100" s="43"/>
+      <c r="C100" s="43"/>
+      <c r="D100" s="43" t="s">
         <v>2</v>
       </c>
       <c r="E100" s="7">
@@ -6673,17 +6827,17 @@
       </c>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="53" t="s">
+      <c r="B101" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C101" s="49"/>
-      <c r="D101" s="49"/>
+      <c r="C101" s="43"/>
+      <c r="D101" s="43"/>
       <c r="E101" s="9"/>
     </row>
     <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B102" s="49"/>
-      <c r="C102" s="57"/>
-      <c r="D102" s="49" t="s">
+      <c r="B102" s="43"/>
+      <c r="C102" s="49"/>
+      <c r="D102" s="43" t="s">
         <v>2</v>
       </c>
       <c r="E102" s="10">
@@ -6691,34 +6845,34 @@
       </c>
     </row>
     <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B103" s="53" t="s">
+      <c r="B103" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C103" s="49"/>
-      <c r="D103" s="49"/>
+      <c r="C103" s="43"/>
+      <c r="D103" s="43"/>
       <c r="E103" s="9"/>
     </row>
     <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B104" s="49"/>
-      <c r="C104" s="49"/>
-      <c r="D104" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E104" s="43">
+      <c r="B104" s="43"/>
+      <c r="C104" s="43"/>
+      <c r="D104" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E104" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B105" s="53" t="s">
+      <c r="B105" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C105" s="49"/>
-      <c r="D105" s="49"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="43"/>
     </row>
     <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B106" s="49"/>
-      <c r="C106" s="49"/>
-      <c r="D106" s="49" t="s">
+      <c r="B106" s="43"/>
+      <c r="C106" s="43"/>
+      <c r="D106" s="43" t="s">
         <v>2</v>
       </c>
       <c r="E106" s="9">
@@ -6726,17 +6880,17 @@
       </c>
     </row>
     <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="53" t="s">
+      <c r="B107" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C107" s="49"/>
-      <c r="D107" s="49"/>
+      <c r="C107" s="43"/>
+      <c r="D107" s="43"/>
       <c r="E107" s="9"/>
     </row>
     <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="49"/>
-      <c r="C108" s="49"/>
-      <c r="D108" s="49" t="s">
+      <c r="B108" s="43"/>
+      <c r="C108" s="43"/>
+      <c r="D108" s="43" t="s">
         <v>2</v>
       </c>
       <c r="E108" s="7">
@@ -6744,27 +6898,27 @@
       </c>
     </row>
     <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="53"/>
-      <c r="B109" s="53" t="s">
+      <c r="A109" s="45"/>
+      <c r="B109" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C109" s="49"/>
-      <c r="D109" s="49"/>
+      <c r="C109" s="43"/>
+      <c r="D109" s="43"/>
       <c r="E109" s="9"/>
     </row>
     <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B110" s="49"/>
-      <c r="C110" s="49"/>
-      <c r="D110" s="49" t="s">
+      <c r="B110" s="43"/>
+      <c r="C110" s="43"/>
+      <c r="D110" s="43" t="s">
         <v>2</v>
       </c>
       <c r="E110" s="7">
         <v>11699294.42</v>
       </c>
-      <c r="F110" s="62"/>
+      <c r="F110" s="54"/>
     </row>
     <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="53" t="s">
+      <c r="A111" s="45" t="s">
         <v>1</v>
       </c>
       <c r="E111" s="4">
@@ -6773,12 +6927,12 @@
       </c>
     </row>
     <row r="112" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B112" s="64"/>
-      <c r="C112" s="64"/>
-      <c r="D112" s="64"/>
+      <c r="A112" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" s="56"/>
+      <c r="C112" s="56"/>
+      <c r="D112" s="56"/>
       <c r="E112" s="1">
         <f>SUM(E93,E111)</f>
         <v>588893668.27999985</v>
